--- a/Source/Plan_for_GP/projectIdea.xlsx
+++ b/Source/Plan_for_GP/projectIdea.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\unie\Personal\NotePersonal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\unie\Source\Plan_for_GP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -338,6 +338,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -355,15 +364,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,36 +667,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="F1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
@@ -872,15 +872,15 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="17"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1157,7 +1157,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="12" t="s">
         <v>28</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -1165,19 +1165,24 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M16" s="9"/>
+      <c r="H16" s="1"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M17" s="9"/>
+    <row r="17" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="M17" s="12"/>
       <c r="N17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M18" s="9"/>
+    <row r="18" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="M18" s="12"/>
       <c r="N18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1185,8 +1190,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M19" s="9"/>
+    <row r="19" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H19" s="1"/>
+      <c r="M19" s="12"/>
       <c r="N19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1194,8 +1200,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M20" s="9"/>
+    <row r="20" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="M20" s="12"/>
       <c r="N20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1203,7 +1211,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
       <c r="P23">
         <v>5</v>
       </c>

--- a/Source/Plan_for_GP/projectIdea.xlsx
+++ b/Source/Plan_for_GP/projectIdea.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>NAMES</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>0 (Rachel)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phoebe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -310,7 +314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +340,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -647,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,36 +674,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="F1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
@@ -872,15 +879,15 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -952,12 +959,24 @@
       <c r="C8" s="1"/>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="F8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="N8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1061,7 +1080,10 @@
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <f>SUM(H7+J7+K7)</f>
+        <v>-125000</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="N11" s="3" t="s">
         <v>23</v>
@@ -1157,7 +1179,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="13" t="s">
         <v>28</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -1166,23 +1188,23 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H16" s="1"/>
-      <c r="M16" s="12"/>
+      <c r="M16" s="13"/>
       <c r="N16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="M17" s="12"/>
+      <c r="M17" s="13"/>
       <c r="N17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="M18" s="12"/>
+      <c r="M18" s="13"/>
       <c r="N18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1190,9 +1212,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H19" s="1"/>
-      <c r="M19" s="12"/>
+      <c r="M19" s="13"/>
       <c r="N19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1200,10 +1222,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="M20" s="12"/>
+      <c r="M20" s="13"/>
       <c r="N20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1211,20 +1233,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="P23">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <sortState ref="O7:T7">
